--- a/biology/Botanique/Iris_d'Allemagne/Iris_d'Allemagne.xlsx
+++ b/biology/Botanique/Iris_d'Allemagne/Iris_d'Allemagne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Iris_d%27Allemagne</t>
+          <t>Iris_d'Allemagne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Iris germanica, Iris x germanica
-L'iris d'Allemagne (Iris germanica, anciennement Iris x germanica) aussi appelée flambe est une plante vivace herbacée de la famille des Iridacées que l'on utilise pour faire des huiles essentielles. Il appartient au groupe des iris barbus. Originaire de Syrie, cet iris a pour épithète spécifique germanica car il était l'emblème héraldique de nombreux seigneurs du Saint-Empire germanique[1] comme le rappelle le peintre Arcimboldo sur le torse de la personne représentée dans le tableau Le printemps de la série Les quatre Saisons.
+L'iris d'Allemagne (Iris germanica, anciennement Iris x germanica) aussi appelée flambe est une plante vivace herbacée de la famille des Iridacées que l'on utilise pour faire des huiles essentielles. Il appartient au groupe des iris barbus. Originaire de Syrie, cet iris a pour épithète spécifique germanica car il était l'emblème héraldique de nombreux seigneurs du Saint-Empire germanique comme le rappelle le peintre Arcimboldo sur le torse de la personne représentée dans le tableau Le printemps de la série Les quatre Saisons.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Iris_d%27Allemagne</t>
+          <t>Iris_d'Allemagne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'iris d'Allemagne est une plante pouvant atteindre 120 cm de haut.
 Son rhizome horizontal à demi enterré mesure environ 2-3 cm de diamètre. Il s'allonge par l'extrémité, qui porte feuilles et hampe, et forme latéralement de nouveaux points de croissance, à l'origine de ramifications.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Iris_d%27Allemagne</t>
+          <t>Iris_d'Allemagne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,10 +563,12 @@
           <t>Origines de l'espèce et multiplication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Iris ×germanica L. est un hybride issu du croisement d’Iris pallida (2n=24) et d'Iris variegata (2n=20), ce qui a donné 44 chromosomes (24 + 20) à Iris x germanica et l'a rendu stérile.
-Il se multiplie donc exclusivement par division de ses rhizomes[2], de préférence en été ou en automne.
+Il se multiplie donc exclusivement par division de ses rhizomes, de préférence en été ou en automne.
 </t>
         </is>
       </c>
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Iris_d%27Allemagne</t>
+          <t>Iris_d'Allemagne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Mauvaise appellation des iris de jardin</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Malgré la stérilité d'Iris germanica, on trouve souvent en jardinerie des iris de jardin identifiés comme Iris x germanica. Il s'agit d'une erreur très répandue. Le véritable nom de ces cultivars aux origines souvent complexes est simplement iris hybride, iris horticole ou tout simplement iris de jardin.
 </t>
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Iris_d%27Allemagne</t>
+          <t>Iris_d'Allemagne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,7 +630,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Iris × alba Savi
 Iris × amoena × Iris × atroviolacea Lange
